--- a/artfynd/A 34707-2025 artfynd.xlsx
+++ b/artfynd/A 34707-2025 artfynd.xlsx
@@ -1749,7 +1749,7 @@
         <v>129060823</v>
       </c>
       <c r="B12" t="n">
-        <v>57724</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
